--- a/output7/【河洛文讀注音-注音二式】《詩經．小雅．鹿鳴》.xlsx
+++ b/output7/【河洛文讀注音-注音二式】《詩經．小雅．鹿鳴》.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F8663F2-4FD4-4283-80BE-571F24755E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8F7DB8-F338-4D17-B5B7-BD9F4B557C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="標音字庫" sheetId="133" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="132" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="134" r:id="rId4"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId7"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId8"/>
+    <sheet name="標音字庫" sheetId="129" r:id="rId2"/>
+    <sheet name="缺字表" sheetId="128" r:id="rId3"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId4"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId5"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId6"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="1306">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4009,9 +4008,15 @@
     <t>注音二式</t>
   </si>
   <si>
+    <t>《</t>
+  </si>
+  <si>
     <t>經</t>
   </si>
   <si>
+    <t>．</t>
+  </si>
+  <si>
     <t>小</t>
   </si>
   <si>
@@ -4022,6 +4027,9 @@
   </si>
   <si>
     <t>鳴</t>
+  </si>
+  <si>
+    <t>》</t>
   </si>
   <si>
     <t>呦</t>
@@ -4365,442 +4373,71 @@
     <t>(53, 15)</t>
   </si>
   <si>
+    <t>ging1</t>
+  </si>
+  <si>
+    <t>bbing5</t>
+  </si>
+  <si>
+    <t>ping5</t>
+  </si>
+  <si>
+    <t>ga1</t>
+  </si>
+  <si>
+    <t>bin1</t>
+  </si>
+  <si>
+    <t>goo2</t>
+  </si>
+  <si>
+    <t>siek4</t>
+  </si>
+  <si>
+    <t>jjin5</t>
+  </si>
+  <si>
+    <t>hor2</t>
+  </si>
+  <si>
+    <t>hor1</t>
+  </si>
+  <si>
+    <t>diek4</t>
+  </si>
+  <si>
+    <t>kong2</t>
+  </si>
+  <si>
+    <t>bbin5</t>
+  </si>
+  <si>
+    <t>but4</t>
+  </si>
+  <si>
+    <t>gun1</t>
+  </si>
+  <si>
+    <t>ziek4</t>
+  </si>
+  <si>
+    <t>ggor5</t>
+  </si>
+  <si>
+    <t>gim5</t>
+  </si>
+  <si>
+    <t>hor5</t>
+  </si>
+  <si>
+    <t>dam7</t>
+  </si>
+  <si>
     <t>詩經．小雅．鹿鳴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>．</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>賓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>簧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>將</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>視</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>則</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>且</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>φ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ging1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nga2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ga1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hor2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hor1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>im1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>but4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thiau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ggor5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hor5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiam7</t>
-  </si>
-  <si>
-    <t>tiam7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diam7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i2.kknews.cc/KcBOlKjbTMdj9wWDnAFPYEIYjLxje7OifQ/0.jpg</t>
+    <t>https://i2.kknews.cc/MXoThPNJkoeAOEZxR8RqnqCwNCYU74wh_Q/0.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4808,7 +4445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5084,14 +4721,8 @@
       <color rgb="FF3399FF"/>
       <name val="Sitka Text Semibold"/>
     </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5113,12 +4744,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5200,7 +4825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5377,19 +5002,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7152,7 +6764,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -7204,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1281</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -7212,7 +6824,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>1390</v>
+        <v>1305</v>
       </c>
       <c r="D7" s="47"/>
     </row>
@@ -7346,14 +6958,14 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{CAC3C0CB-0F37-40E8-8B2D-FBCA29478753}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{A0A7310A-FFA3-48F8-92C5-B03F06FF3EF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE4F110-9A8B-4160-97FD-5EBE5EC227EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B4E953-85EF-4333-B744-9F996C5E4DA1}">
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7390,7 +7002,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B3" t="s">
         <v>426</v>
@@ -7404,49 +7016,49 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B4" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B5" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B6" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="C6" t="s">
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B7" t="s">
         <v>312</v>
@@ -7455,12 +7067,12 @@
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B8" t="s">
         <v>416</v>
@@ -7469,35 +7081,35 @@
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="B9" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="B10" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="C10" t="s">
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7511,35 +7123,35 @@
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="B12" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="C12" t="s">
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="B13" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7553,40 +7165,40 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="B15" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C15" t="s">
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="B16" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C16" t="s">
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B17" t="s">
         <v>467</v>
@@ -7595,26 +7207,26 @@
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="B18" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C18" t="s">
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="B19" t="s">
         <v>403</v>
@@ -7623,12 +7235,12 @@
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -7637,40 +7249,40 @@
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="B21" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="C21" t="s">
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="B22" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="C22" t="s">
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="B23" t="s">
         <v>394</v>
@@ -7679,7 +7291,7 @@
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7693,21 +7305,21 @@
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="B25" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C25" t="s">
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7721,26 +7333,26 @@
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B27" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -7749,21 +7361,21 @@
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="B29" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C29" t="s">
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7774,29 +7386,29 @@
         <v>400</v>
       </c>
       <c r="C30" t="s">
-        <v>353</v>
+        <v>499</v>
       </c>
       <c r="D30" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="B31" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B32" t="s">
         <v>307</v>
@@ -7810,10 +7422,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="B33" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
@@ -7824,24 +7436,24 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="B34" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B35" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
@@ -7852,7 +7464,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -7861,7 +7473,7 @@
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7875,7 +7487,7 @@
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7889,15 +7501,15 @@
         <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="B39" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="C39" t="s">
         <v>499</v>
@@ -7917,7 +7529,7 @@
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7931,7 +7543,7 @@
         <v>499</v>
       </c>
       <c r="D41" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7945,26 +7557,26 @@
         <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B43" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C43" t="s">
         <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="B44" t="s">
         <v>440</v>
@@ -7973,7 +7585,7 @@
         <v>499</v>
       </c>
       <c r="D44" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7987,15 +7599,15 @@
         <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="B46" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C46" t="s">
         <v>499</v>
@@ -8006,7 +7618,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B47" t="s">
         <v>443</v>
@@ -8015,7 +7627,7 @@
         <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -8029,49 +7641,49 @@
         <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="B49" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="C49" t="s">
         <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B50" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="C50" t="s">
         <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="B51" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="C51" t="s">
         <v>499</v>
       </c>
       <c r="D51" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8085,7 +7697,7 @@
         <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -8093,41 +7705,41 @@
         <v>251</v>
       </c>
       <c r="B53" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="B54" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="B55" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="C55" t="s">
-        <v>1387</v>
+        <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -8141,7 +7753,7 @@
         <v>499</v>
       </c>
       <c r="D56" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
     </row>
   </sheetData>
@@ -8151,7 +7763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27A36C9-21D7-42E3-ABC3-D1A99F50D206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DBD220-D190-4C69-967F-7073A544E3BA}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8179,62 +7791,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860601CE-58FB-4ACB-87FA-C24348FE822E}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
@@ -8313,51 +7869,51 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
       <c r="V3" s="54" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60" t="s">
-        <v>581</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60" t="s">
-        <v>1346</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>535</v>
-      </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="50"/>
@@ -8369,37 +7925,37 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>1285</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>1287</v>
-      </c>
-      <c r="J5" s="59" t="s">
-        <v>1285</v>
-      </c>
-      <c r="K5" s="59" t="s">
-        <v>1288</v>
-      </c>
-      <c r="L5" s="59" t="s">
-        <v>1289</v>
-      </c>
-      <c r="M5" s="59" t="s">
-        <v>1290</v>
-      </c>
-      <c r="N5" s="59" t="str">
+      <c r="D5" s="39" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>1169</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N5" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8416,24 +7972,24 @@
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51" t="s">
-        <v>581</v>
+        <v>331</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>1343</v>
+        <v>1284</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51" t="s">
-        <v>1344</v>
+        <v>1210</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>1345</v>
+        <v>1212</v>
       </c>
       <c r="J6" s="51"/>
       <c r="K6" s="51" t="s">
-        <v>1346</v>
+        <v>1214</v>
       </c>
       <c r="L6" s="51" t="s">
-        <v>1347</v>
+        <v>1285</v>
       </c>
       <c r="M6" s="51"/>
       <c r="N6" s="51"/>
@@ -8447,17 +8003,17 @@
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -8467,33 +8023,33 @@
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>535</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60" t="s">
-        <v>1348</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>1349</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="L8" s="60" t="s">
-        <v>1350</v>
-      </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="D8" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>1223</v>
+      </c>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="50"/>
       <c r="P8" s="50"/>
       <c r="Q8" s="50"/>
@@ -8506,37 +8062,37 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>1293</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>1294</v>
-      </c>
-      <c r="K9" s="59" t="s">
-        <v>1295</v>
-      </c>
-      <c r="L9" s="59" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M9" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N9" s="59" t="str">
+      <c r="D9" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8552,29 +8108,29 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
       <c r="D10" s="51" t="s">
-        <v>766</v>
+        <v>416</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>766</v>
+        <v>416</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>1346</v>
+        <v>1214</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>1347</v>
+        <v>1285</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="51" t="s">
-        <v>1348</v>
+        <v>1218</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>1349</v>
+        <v>1220</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>1351</v>
+        <v>1286</v>
       </c>
       <c r="M10" s="51"/>
       <c r="N10" s="51"/>
@@ -8588,17 +8144,17 @@
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
@@ -8607,33 +8163,33 @@
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="60" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>756</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60" t="s">
-        <v>876</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>1358</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>738</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>722</v>
-      </c>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+      <c r="D12" s="50" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
       <c r="O12" s="50"/>
       <c r="P12" s="50"/>
       <c r="Q12" s="50"/>
@@ -8646,37 +8202,37 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H13" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I13" s="59" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J13" s="59" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>1304</v>
-      </c>
-      <c r="L13" s="59" t="s">
-        <v>1305</v>
-      </c>
-      <c r="M13" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N13" s="59" t="str">
+      <c r="D13" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8691,29 +8247,29 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
       <c r="D14" s="51" t="s">
-        <v>1352</v>
+        <v>1225</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>756</v>
+        <v>411</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>1354</v>
+        <v>1287</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>1356</v>
+        <v>1288</v>
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="51" t="s">
-        <v>1357</v>
+        <v>1289</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>1359</v>
+        <v>1290</v>
       </c>
       <c r="K14" s="51" t="s">
-        <v>738</v>
+        <v>403</v>
       </c>
       <c r="L14" s="51" t="s">
-        <v>722</v>
+        <v>62</v>
       </c>
       <c r="M14" s="51"/>
       <c r="N14" s="51"/>
@@ -8727,17 +8283,17 @@
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
@@ -8746,33 +8302,33 @@
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="60" t="s">
-        <v>738</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>722</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>876</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>1360</v>
-      </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60" t="s">
-        <v>1361</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>718</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>896</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
+      <c r="D16" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="50" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="50"/>
       <c r="P16" s="50"/>
       <c r="Q16" s="50"/>
@@ -8785,37 +8341,37 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="59" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H17" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>1307</v>
-      </c>
-      <c r="J17" s="59" t="s">
-        <v>1308</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>1309</v>
-      </c>
-      <c r="L17" s="59" t="s">
-        <v>1310</v>
-      </c>
-      <c r="M17" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N17" s="59" t="str">
+      <c r="D17" s="39" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>1189</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8830,29 +8386,29 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
       <c r="D18" s="51" t="s">
-        <v>738</v>
+        <v>403</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>722</v>
+        <v>62</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>1357</v>
+        <v>1289</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>1360</v>
+        <v>1237</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="51" t="s">
-        <v>1361</v>
+        <v>1239</v>
       </c>
       <c r="J18" s="51" t="s">
-        <v>798</v>
+        <v>429</v>
       </c>
       <c r="K18" s="51" t="s">
-        <v>896</v>
+        <v>53</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>1362</v>
+        <v>1243</v>
       </c>
       <c r="M18" s="51"/>
       <c r="N18" s="51"/>
@@ -8866,19 +8422,19 @@
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61" t="s">
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52" t="s">
         <v>633</v>
       </c>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
@@ -8887,33 +8443,33 @@
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="60" t="s">
-        <v>541</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>1352</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60" t="s">
-        <v>896</v>
-      </c>
-      <c r="J20" s="60" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K20" s="60" t="s">
-        <v>1366</v>
-      </c>
-      <c r="L20" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
+      <c r="D20" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>400</v>
+      </c>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="50"/>
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
@@ -8926,37 +8482,37 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="59" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>1312</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>1298</v>
-      </c>
-      <c r="H21" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I21" s="59" t="s">
-        <v>1313</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>1298</v>
-      </c>
-      <c r="K21" s="59" t="s">
-        <v>1314</v>
-      </c>
-      <c r="L21" s="62" t="s">
-        <v>1315</v>
-      </c>
-      <c r="M21" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N21" s="59" t="str">
+      <c r="D21" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8971,29 +8527,29 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
       <c r="D22" s="51" t="s">
-        <v>1363</v>
+        <v>1291</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>1365</v>
+        <v>1292</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>1352</v>
+        <v>1225</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="51" t="s">
-        <v>896</v>
+        <v>53</v>
       </c>
       <c r="J22" s="51" t="s">
-        <v>1352</v>
+        <v>1225</v>
       </c>
       <c r="K22" s="51" t="s">
-        <v>1366</v>
+        <v>1249</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>633</v>
+        <v>400</v>
       </c>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -9007,17 +8563,17 @@
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
       <c r="O23" s="52"/>
       <c r="P23" s="52"/>
       <c r="Q23" s="52"/>
@@ -9026,33 +8582,33 @@
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>535</v>
-      </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60" t="s">
-        <v>1348</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>1349</v>
-      </c>
-      <c r="K24" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="L24" s="60" t="s">
-        <v>1367</v>
-      </c>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
+      <c r="D24" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="L24" s="50" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="50"/>
       <c r="P24" s="50"/>
       <c r="Q24" s="50"/>
@@ -9065,37 +8621,37 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="59" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>1293</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>1294</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>1295</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>1316</v>
-      </c>
-      <c r="M25" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N25" s="59" t="str">
+      <c r="D25" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9110,29 +8666,29 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
       <c r="D26" s="51" t="s">
-        <v>766</v>
+        <v>416</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>766</v>
+        <v>416</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>1346</v>
+        <v>1214</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>1347</v>
+        <v>1285</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="51" t="s">
-        <v>1348</v>
+        <v>1218</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>1349</v>
+        <v>1220</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="L26" s="51" t="s">
-        <v>1368</v>
+        <v>1293</v>
       </c>
       <c r="M26" s="51"/>
       <c r="N26" s="51"/>
@@ -9146,17 +8702,17 @@
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -9165,33 +8721,33 @@
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="60" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>756</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60" t="s">
-        <v>523</v>
-      </c>
-      <c r="J28" s="60" t="s">
-        <v>1370</v>
-      </c>
-      <c r="K28" s="60" t="s">
-        <v>1371</v>
-      </c>
-      <c r="L28" s="60" t="s">
-        <v>1373</v>
-      </c>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
+      <c r="D28" s="50" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>1257</v>
+      </c>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
       <c r="O28" s="50"/>
       <c r="P28" s="50"/>
       <c r="Q28" s="50"/>
@@ -9205,37 +8761,37 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="59" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F29" s="59" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H29" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I29" s="59" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K29" s="59" t="s">
-        <v>1319</v>
-      </c>
-      <c r="L29" s="59" t="s">
-        <v>1320</v>
-      </c>
-      <c r="M29" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N29" s="59" t="str">
+      <c r="D29" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9251,29 +8807,29 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
       <c r="D30" s="51" t="s">
-        <v>1352</v>
+        <v>1225</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>756</v>
+        <v>411</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>1354</v>
+        <v>1287</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>1356</v>
+        <v>1288</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51" t="s">
-        <v>1369</v>
+        <v>1294</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>1370</v>
+        <v>1254</v>
       </c>
       <c r="K30" s="51" t="s">
-        <v>1372</v>
+        <v>1295</v>
       </c>
       <c r="L30" s="51" t="s">
-        <v>1373</v>
+        <v>1257</v>
       </c>
       <c r="M30" s="51"/>
       <c r="N30" s="51"/>
@@ -9288,58 +8844,58 @@
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
       <c r="V31" s="55"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="60" t="s">
-        <v>896</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>892</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>704</v>
-      </c>
-      <c r="G32" s="60" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60" t="s">
-        <v>894</v>
-      </c>
-      <c r="J32" s="60" t="s">
-        <v>519</v>
-      </c>
-      <c r="K32" s="60" t="s">
-        <v>896</v>
-      </c>
-      <c r="L32" s="60" t="s">
-        <v>653</v>
-      </c>
-      <c r="M32" s="60" t="s">
-        <v>896</v>
-      </c>
-      <c r="N32" s="60" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
+      <c r="D32" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>387</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" s="50" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="50"/>
       <c r="S32" s="18"/>
@@ -9351,43 +8907,43 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="59" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F33" s="59" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H33" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I33" s="59" t="s">
-        <v>1325</v>
-      </c>
-      <c r="J33" s="59" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K33" s="59" t="s">
-        <v>1309</v>
-      </c>
-      <c r="L33" s="59" t="s">
-        <v>1327</v>
-      </c>
-      <c r="M33" s="59" t="s">
-        <v>1309</v>
-      </c>
-      <c r="N33" s="59" t="s">
-        <v>1328</v>
-      </c>
-      <c r="O33" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="P33" s="59" t="str">
+      <c r="D33" s="39" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9400,35 +8956,35 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
       <c r="D34" s="51" t="s">
-        <v>896</v>
+        <v>53</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>1374</v>
+        <v>1296</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>1375</v>
+        <v>1297</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>639</v>
+        <v>356</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="51" t="s">
-        <v>1377</v>
+        <v>1298</v>
       </c>
       <c r="J34" s="51" t="s">
-        <v>519</v>
+        <v>305</v>
       </c>
       <c r="K34" s="51" t="s">
-        <v>896</v>
+        <v>53</v>
       </c>
       <c r="L34" s="51" t="s">
-        <v>1378</v>
+        <v>1299</v>
       </c>
       <c r="M34" s="51" t="s">
-        <v>896</v>
+        <v>53</v>
       </c>
       <c r="N34" s="51" t="s">
-        <v>1379</v>
+        <v>1265</v>
       </c>
       <c r="O34" s="51"/>
       <c r="P34" s="51"/>
@@ -9440,58 +8996,58 @@
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
       <c r="V35" s="55"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="60" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>756</v>
-      </c>
-      <c r="F36" s="60" t="s">
-        <v>820</v>
-      </c>
-      <c r="G36" s="60" t="s">
-        <v>862</v>
-      </c>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60" t="s">
-        <v>1353</v>
-      </c>
-      <c r="J36" s="60" t="s">
-        <v>1355</v>
-      </c>
-      <c r="K36" s="60" t="s">
-        <v>1358</v>
-      </c>
-      <c r="L36" s="60" t="s">
-        <v>826</v>
-      </c>
-      <c r="M36" s="60" t="s">
-        <v>597</v>
-      </c>
-      <c r="N36" s="60" t="s">
-        <v>1380</v>
-      </c>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
+      <c r="D36" s="50" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K36" s="50" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L36" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="M36" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="N36" s="50" t="s">
+        <v>1271</v>
+      </c>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
       <c r="Q36" s="50"/>
       <c r="R36" s="50"/>
       <c r="S36" s="18"/>
@@ -9502,43 +9058,43 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="59" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E37" s="59" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F37" s="59" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>1330</v>
-      </c>
-      <c r="H37" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I37" s="59" t="s">
-        <v>1300</v>
-      </c>
-      <c r="J37" s="59" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K37" s="59" t="s">
-        <v>1331</v>
-      </c>
-      <c r="L37" s="59" t="s">
-        <v>1332</v>
-      </c>
-      <c r="M37" s="59" t="s">
-        <v>1333</v>
-      </c>
-      <c r="N37" s="59" t="s">
-        <v>1334</v>
-      </c>
-      <c r="O37" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="P37" s="59" t="str">
+      <c r="D37" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K37" s="39" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N37" s="39" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9551,35 +9107,35 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
       <c r="D38" s="51" t="s">
-        <v>1352</v>
+        <v>1225</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>756</v>
+        <v>411</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>820</v>
+        <v>440</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>862</v>
+        <v>460</v>
       </c>
       <c r="H38" s="51"/>
       <c r="I38" s="51" t="s">
-        <v>1354</v>
+        <v>1287</v>
       </c>
       <c r="J38" s="51" t="s">
-        <v>1356</v>
+        <v>1288</v>
       </c>
       <c r="K38" s="51" t="s">
-        <v>1359</v>
+        <v>1290</v>
       </c>
       <c r="L38" s="51" t="s">
-        <v>826</v>
+        <v>443</v>
       </c>
       <c r="M38" s="51" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>1381</v>
+        <v>1300</v>
       </c>
       <c r="O38" s="51"/>
       <c r="P38" s="51"/>
@@ -9591,17 +9147,17 @@
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
       <c r="O39" s="52"/>
       <c r="P39" s="52"/>
       <c r="Q39" s="52"/>
@@ -9610,33 +9166,33 @@
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="F40" s="60" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>535</v>
-      </c>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60" t="s">
-        <v>1348</v>
-      </c>
-      <c r="J40" s="60" t="s">
-        <v>1349</v>
-      </c>
-      <c r="K40" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="L40" s="60" t="s">
-        <v>1382</v>
-      </c>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
+      <c r="D40" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K40" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" s="50" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
       <c r="O40" s="50"/>
       <c r="P40" s="50"/>
       <c r="Q40" s="50"/>
@@ -9649,37 +9205,37 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="59" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E41" s="59" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F41" s="59" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G41" s="59" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H41" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I41" s="59" t="s">
-        <v>1293</v>
-      </c>
-      <c r="J41" s="59" t="s">
-        <v>1294</v>
-      </c>
-      <c r="K41" s="59" t="s">
-        <v>1295</v>
-      </c>
-      <c r="L41" s="59" t="s">
-        <v>1335</v>
-      </c>
-      <c r="M41" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N41" s="59" t="str">
+      <c r="D41" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9694,29 +9250,29 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
       <c r="D42" s="51" t="s">
-        <v>766</v>
+        <v>416</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>766</v>
+        <v>416</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>1346</v>
+        <v>1214</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>1347</v>
+        <v>1285</v>
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="51" t="s">
-        <v>1348</v>
+        <v>1218</v>
       </c>
       <c r="J42" s="51" t="s">
-        <v>1349</v>
+        <v>1220</v>
       </c>
       <c r="K42" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="L42" s="51" t="s">
-        <v>1383</v>
+        <v>1301</v>
       </c>
       <c r="M42" s="51"/>
       <c r="N42" s="51"/>
@@ -9730,17 +9286,17 @@
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
       <c r="O43" s="52"/>
       <c r="P43" s="52"/>
       <c r="Q43" s="52"/>
@@ -9749,33 +9305,33 @@
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="60" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>756</v>
-      </c>
-      <c r="F44" s="60" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60" t="s">
-        <v>876</v>
-      </c>
-      <c r="J44" s="60" t="s">
-        <v>1358</v>
-      </c>
-      <c r="K44" s="60" t="s">
-        <v>876</v>
-      </c>
-      <c r="L44" s="60" t="s">
-        <v>1384</v>
-      </c>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
+      <c r="D44" s="50" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K44" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="L44" s="50" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
       <c r="O44" s="50"/>
       <c r="P44" s="50"/>
       <c r="Q44" s="50"/>
@@ -9788,37 +9344,37 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="59" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E45" s="59" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F45" s="59" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H45" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I45" s="59" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J45" s="59" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K45" s="59" t="s">
-        <v>1302</v>
-      </c>
-      <c r="L45" s="59" t="s">
-        <v>1336</v>
-      </c>
-      <c r="M45" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N45" s="59" t="str">
+      <c r="D45" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K45" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9833,29 +9389,29 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
       <c r="D46" s="51" t="s">
-        <v>1352</v>
+        <v>1225</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>756</v>
+        <v>411</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>1354</v>
+        <v>1287</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>1356</v>
+        <v>1288</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51" t="s">
-        <v>1357</v>
+        <v>1289</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>1359</v>
+        <v>1290</v>
       </c>
       <c r="K46" s="51" t="s">
-        <v>1357</v>
+        <v>1289</v>
       </c>
       <c r="L46" s="51" t="s">
-        <v>1382</v>
+        <v>1273</v>
       </c>
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
@@ -9869,19 +9425,17 @@
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61" t="s">
-        <v>1388</v>
-      </c>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
       <c r="O47" s="52"/>
       <c r="P47" s="52"/>
       <c r="Q47" s="52"/>
@@ -9890,33 +9444,33 @@
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="60" t="s">
-        <v>876</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F48" s="60" t="s">
-        <v>876</v>
-      </c>
-      <c r="G48" s="60" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60" t="s">
-        <v>543</v>
-      </c>
-      <c r="J48" s="60" t="s">
-        <v>1346</v>
-      </c>
-      <c r="K48" s="60" t="s">
-        <v>1386</v>
-      </c>
-      <c r="L48" s="60" t="s">
-        <v>1388</v>
-      </c>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
+      <c r="D48" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="50" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K48" s="50" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L48" s="50" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
       <c r="O48" s="50"/>
       <c r="P48" s="50"/>
       <c r="Q48" s="50"/>
@@ -9929,37 +9483,37 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="59" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E49" s="59" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F49" s="59" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>1336</v>
-      </c>
-      <c r="H49" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I49" s="59" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J49" s="59" t="s">
-        <v>1338</v>
-      </c>
-      <c r="K49" s="59" t="s">
-        <v>1339</v>
-      </c>
-      <c r="L49" s="62" t="s">
-        <v>1340</v>
-      </c>
-      <c r="M49" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N49" s="59" t="str">
+      <c r="D49" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9974,29 +9528,29 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
       <c r="D50" s="51" t="s">
-        <v>1357</v>
+        <v>1289</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>1359</v>
+        <v>1290</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>1357</v>
+        <v>1289</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>1382</v>
+        <v>1273</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51" t="s">
-        <v>1385</v>
+        <v>1302</v>
       </c>
       <c r="J50" s="51" t="s">
-        <v>1346</v>
+        <v>1214</v>
       </c>
       <c r="K50" s="51" t="s">
-        <v>1386</v>
+        <v>1279</v>
       </c>
       <c r="L50" s="51" t="s">
-        <v>1389</v>
+        <v>1303</v>
       </c>
       <c r="M50" s="51"/>
       <c r="N50" s="51"/>
@@ -10010,61 +9564,61 @@
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
       <c r="V51" s="55"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="60" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E52" s="60" t="s">
-        <v>756</v>
-      </c>
-      <c r="F52" s="60" t="s">
-        <v>820</v>
-      </c>
-      <c r="G52" s="60" t="s">
-        <v>862</v>
-      </c>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60" t="s">
-        <v>597</v>
-      </c>
-      <c r="J52" s="60" t="s">
-        <v>826</v>
-      </c>
-      <c r="K52" s="60" t="s">
-        <v>1346</v>
-      </c>
-      <c r="L52" s="60" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M52" s="60" t="s">
-        <v>1355</v>
-      </c>
-      <c r="N52" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="O52" s="60" t="s">
-        <v>846</v>
-      </c>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
+      <c r="D52" s="50" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="J52" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="K52" s="50" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L52" s="50" t="s">
+        <v>1228</v>
+      </c>
+      <c r="M52" s="50" t="s">
+        <v>1230</v>
+      </c>
+      <c r="N52" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="O52" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
       <c r="S52" s="18"/>
       <c r="V52" s="55"/>
@@ -10074,46 +9628,46 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="59" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E53" s="59" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F53" s="59" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G53" s="59" t="s">
-        <v>1330</v>
-      </c>
-      <c r="H53" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I53" s="59" t="s">
-        <v>1333</v>
-      </c>
-      <c r="J53" s="59" t="s">
-        <v>1332</v>
-      </c>
-      <c r="K53" s="59" t="s">
-        <v>1338</v>
-      </c>
-      <c r="L53" s="59" t="s">
-        <v>1300</v>
-      </c>
-      <c r="M53" s="59" t="s">
-        <v>1301</v>
-      </c>
-      <c r="N53" s="59" t="s">
-        <v>1295</v>
-      </c>
-      <c r="O53" s="59" t="s">
-        <v>1341</v>
-      </c>
-      <c r="P53" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="Q53" s="59" t="str">
+      <c r="D53" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" s="39" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="N53" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="39" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -10125,38 +9679,38 @@
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
       <c r="D54" s="51" t="s">
-        <v>1352</v>
+        <v>1225</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>756</v>
+        <v>411</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>820</v>
+        <v>440</v>
       </c>
       <c r="G54" s="51" t="s">
-        <v>862</v>
+        <v>460</v>
       </c>
       <c r="H54" s="51"/>
       <c r="I54" s="51" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="J54" s="51" t="s">
-        <v>826</v>
+        <v>443</v>
       </c>
       <c r="K54" s="51" t="s">
-        <v>1346</v>
+        <v>1214</v>
       </c>
       <c r="L54" s="51" t="s">
-        <v>1354</v>
+        <v>1287</v>
       </c>
       <c r="M54" s="51" t="s">
-        <v>1356</v>
+        <v>1288</v>
       </c>
       <c r="N54" s="51" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="O54" s="51" t="s">
-        <v>846</v>
+        <v>452</v>
       </c>
       <c r="P54" s="51"/>
       <c r="Q54" s="51"/>
@@ -10167,7 +9721,7 @@
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="61"/>
+      <c r="D55" s="52"/>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
@@ -10186,7 +9740,7 @@
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="60"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="50"/>
       <c r="F56" s="50"/>
       <c r="G56" s="50"/>
@@ -10209,8 +9763,8 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="59" t="s">
-        <v>1342</v>
+      <c r="D57" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
@@ -48830,7 +48384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -48999,7 +48553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -53062,7 +52616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V241"/>
   <sheetViews>
